--- a/models/sft/rbc/parameters.xlsx
+++ b/models/sft/rbc/parameters.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="Properties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>inverse</t>
-  </si>
-  <si>
-    <t>failed</t>
   </si>
   <si>
     <t>BUS</t>
@@ -379,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +400,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -422,7 +418,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -440,7 +436,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -458,7 +454,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -476,7 +472,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -494,7 +490,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -541,226 +537,6 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>55000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>115000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>155000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>185000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>195000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>200000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
